--- a/ALS_data/Log 2016-03-29T20-00-49.950/plots/threadLogger.xlsx
+++ b/ALS_data/Log 2016-03-29T20-00-49.950/plots/threadLogger.xlsx
@@ -22,22 +22,22 @@
     <t>thread name</t>
   </si>
   <si>
-    <t xml:space="preserve"> total move</t>
+    <t>total move</t>
   </si>
   <si>
     <t>alive_time</t>
   </si>
   <si>
-    <t xml:space="preserve">total food count </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> total poison count </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> total children count</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dna</t>
+    <t>total food count</t>
+  </si>
+  <si>
+    <t>total poison count</t>
+  </si>
+  <si>
+    <t>total children count</t>
+  </si>
+  <si>
+    <t>dna</t>
   </si>
   <si>
     <t>gendar</t>
@@ -52,7 +52,7 @@
     <t>end_time</t>
   </si>
   <si>
-    <t>Thread-86</t>
+    <t>86</t>
   </si>
   <si>
     <t xml:space="preserve"> GAGCTCAGTG</t>
@@ -61,25 +61,25 @@
     <t>male</t>
   </si>
   <si>
-    <t>Thread-87</t>
+    <t>87</t>
   </si>
   <si>
     <t xml:space="preserve"> CTGATCCCTA</t>
   </si>
   <si>
-    <t>Thread-91</t>
+    <t>91</t>
   </si>
   <si>
     <t xml:space="preserve"> CTGCTCAGTG</t>
   </si>
   <si>
-    <t>Thread-34</t>
+    <t>34</t>
   </si>
   <si>
     <t xml:space="preserve"> GTGACTTGCC</t>
   </si>
   <si>
-    <t>Thread-50</t>
+    <t>50</t>
   </si>
   <si>
     <t xml:space="preserve"> ATCACTAGAG</t>
@@ -88,2599 +88,2599 @@
     <t>female</t>
   </si>
   <si>
-    <t>Thread-20</t>
+    <t>20</t>
   </si>
   <si>
     <t xml:space="preserve"> TAGCCCACCG</t>
   </si>
   <si>
-    <t>Thread-72</t>
+    <t>72</t>
   </si>
   <si>
     <t xml:space="preserve"> AACAGCAGAC</t>
   </si>
   <si>
-    <t>Thread-56</t>
+    <t>56</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTGGAGGAG</t>
   </si>
   <si>
-    <t>Thread-17</t>
+    <t>17</t>
   </si>
   <si>
     <t xml:space="preserve"> GTGTAGATCA</t>
   </si>
   <si>
-    <t>Thread-66</t>
+    <t>66</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCAGGTTTG</t>
   </si>
   <si>
-    <t>Thread-47</t>
+    <t>47</t>
   </si>
   <si>
     <t xml:space="preserve"> GCATTGAACG</t>
   </si>
   <si>
-    <t>Thread-32</t>
+    <t>32</t>
   </si>
   <si>
     <t xml:space="preserve"> CCAAAAATAA</t>
   </si>
   <si>
-    <t>Thread-43</t>
+    <t>43</t>
   </si>
   <si>
     <t xml:space="preserve"> GGAACCACGA</t>
   </si>
   <si>
-    <t>Thread-37</t>
+    <t>37</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCATACCCG</t>
   </si>
   <si>
-    <t>Thread-22</t>
+    <t>22</t>
   </si>
   <si>
     <t xml:space="preserve"> CCTGCAGATG</t>
   </si>
   <si>
-    <t>Thread-53</t>
+    <t>53</t>
   </si>
   <si>
     <t xml:space="preserve"> GGTATTAGTA</t>
   </si>
   <si>
-    <t>Thread-44</t>
+    <t>44</t>
   </si>
   <si>
     <t xml:space="preserve"> GACTTGCACG</t>
   </si>
   <si>
-    <t>Thread-76</t>
+    <t>76</t>
   </si>
   <si>
     <t xml:space="preserve"> CCGTTGTGAA</t>
   </si>
   <si>
-    <t>Thread-14</t>
+    <t>14</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCGGAGACT</t>
   </si>
   <si>
-    <t>Thread-81</t>
+    <t>81</t>
   </si>
   <si>
     <t xml:space="preserve"> TATAAACCGT</t>
   </si>
   <si>
-    <t>Thread-77</t>
+    <t>77</t>
   </si>
   <si>
     <t xml:space="preserve"> TCAGACATCC</t>
   </si>
   <si>
-    <t>Thread-42</t>
+    <t>42</t>
   </si>
   <si>
     <t xml:space="preserve"> GCGAAATGTT</t>
   </si>
   <si>
-    <t>Thread-82</t>
+    <t>82</t>
   </si>
   <si>
     <t xml:space="preserve"> CTAGCACCTC</t>
   </si>
   <si>
-    <t>Thread-39</t>
+    <t>39</t>
   </si>
   <si>
     <t xml:space="preserve"> AACTTGCGCA</t>
   </si>
   <si>
-    <t>Thread-63</t>
+    <t>63</t>
   </si>
   <si>
     <t xml:space="preserve"> GAGGTCTATT</t>
   </si>
   <si>
-    <t>Thread-31</t>
+    <t>31</t>
   </si>
   <si>
     <t xml:space="preserve"> TAATACGGAG</t>
   </si>
   <si>
-    <t>Thread-19</t>
+    <t>19</t>
   </si>
   <si>
     <t xml:space="preserve"> CCACCACGCC</t>
   </si>
   <si>
-    <t>Thread-74</t>
+    <t>74</t>
   </si>
   <si>
     <t xml:space="preserve"> CAAAGAACAA</t>
   </si>
   <si>
-    <t>Thread-46</t>
+    <t>46</t>
   </si>
   <si>
     <t xml:space="preserve"> GCTAGATCAC</t>
   </si>
   <si>
-    <t>Thread-93</t>
+    <t>93</t>
   </si>
   <si>
     <t xml:space="preserve"> GTAGTTGACG</t>
   </si>
   <si>
-    <t>Thread-36</t>
+    <t>36</t>
   </si>
   <si>
     <t xml:space="preserve"> TAAATCTAAA</t>
   </si>
   <si>
-    <t>Thread-30</t>
+    <t>30</t>
   </si>
   <si>
     <t xml:space="preserve"> TATGGCTAAA</t>
   </si>
   <si>
-    <t>Thread-18</t>
+    <t>18</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTAGGTAGG</t>
   </si>
   <si>
-    <t>Thread-96</t>
+    <t>96</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCTCATAAT</t>
   </si>
   <si>
-    <t>Thread-97</t>
+    <t>97</t>
   </si>
   <si>
     <t xml:space="preserve"> GGACCACGCT</t>
   </si>
   <si>
-    <t>Thread-98</t>
+    <t>98</t>
   </si>
   <si>
     <t xml:space="preserve"> GGGTAAGTAT</t>
   </si>
   <si>
-    <t>Thread-6</t>
+    <t>6</t>
   </si>
   <si>
     <t xml:space="preserve"> CCGGTTCGTG</t>
   </si>
   <si>
-    <t>Thread-88</t>
+    <t>88</t>
   </si>
   <si>
     <t xml:space="preserve"> TAGATTGTAT</t>
   </si>
   <si>
-    <t>Thread-100</t>
+    <t>100</t>
   </si>
   <si>
     <t xml:space="preserve"> TCCCATACCC</t>
   </si>
   <si>
-    <t>Thread-89</t>
+    <t>89</t>
   </si>
   <si>
     <t xml:space="preserve"> AAGTTCGTGT</t>
   </si>
   <si>
-    <t>Thread-78</t>
+    <t>78</t>
   </si>
   <si>
     <t xml:space="preserve"> CAGTGACCCA</t>
   </si>
   <si>
-    <t>Thread-8</t>
+    <t>8</t>
   </si>
   <si>
     <t xml:space="preserve"> CGGGGGTCTT</t>
   </si>
   <si>
-    <t>Thread-55</t>
+    <t>55</t>
   </si>
   <si>
     <t xml:space="preserve"> GCTATAATAG</t>
   </si>
   <si>
-    <t>Thread-58</t>
+    <t>58</t>
   </si>
   <si>
     <t xml:space="preserve"> TCTGCCACTA</t>
   </si>
   <si>
-    <t>Thread-65</t>
+    <t>65</t>
   </si>
   <si>
     <t xml:space="preserve"> GAGCTCAACA</t>
   </si>
   <si>
-    <t>Thread-75</t>
+    <t>75</t>
   </si>
   <si>
     <t xml:space="preserve"> GCGTGACCTG</t>
   </si>
   <si>
-    <t>Thread-15</t>
+    <t>15</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCTATCTTA</t>
   </si>
   <si>
-    <t>Thread-83</t>
+    <t>83</t>
   </si>
   <si>
     <t xml:space="preserve"> GCGCCCTAGA</t>
   </si>
   <si>
-    <t>Thread-25</t>
+    <t>25</t>
   </si>
   <si>
     <t xml:space="preserve"> ATATGCTGTC</t>
   </si>
   <si>
-    <t>Thread-101</t>
+    <t>101</t>
   </si>
   <si>
     <t xml:space="preserve"> TTGGAGGATT</t>
   </si>
   <si>
-    <t>Thread-71</t>
-  </si>
-  <si>
-    <t>Thread-9</t>
+    <t>71</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t xml:space="preserve"> ATCTTCGTGT</t>
   </si>
   <si>
-    <t>Thread-48</t>
+    <t>48</t>
   </si>
   <si>
     <t xml:space="preserve"> ATCATGTCCT</t>
   </si>
   <si>
-    <t>Thread-80</t>
+    <t>80</t>
   </si>
   <si>
     <t xml:space="preserve"> AATGTATTAT</t>
   </si>
   <si>
-    <t>Thread-51</t>
+    <t>51</t>
   </si>
   <si>
     <t xml:space="preserve"> TAGTTCCGGG</t>
   </si>
   <si>
-    <t>Thread-105</t>
+    <t>105</t>
   </si>
   <si>
     <t xml:space="preserve"> TTAATCGGCT</t>
   </si>
   <si>
-    <t>Thread-109</t>
+    <t>109</t>
   </si>
   <si>
     <t xml:space="preserve"> TTCCATAAAC</t>
   </si>
   <si>
-    <t>Thread-92</t>
+    <t>92</t>
   </si>
   <si>
     <t xml:space="preserve"> GGGTAAGAAT</t>
   </si>
   <si>
-    <t>Thread-113</t>
+    <t>113</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCGTATTAG</t>
   </si>
   <si>
-    <t>Thread-114</t>
+    <t>114</t>
   </si>
   <si>
     <t xml:space="preserve"> AATTGCTGTC</t>
   </si>
   <si>
-    <t>Thread-115</t>
+    <t>115</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCTAGAGCA</t>
   </si>
   <si>
-    <t>Thread-90</t>
+    <t>90</t>
   </si>
   <si>
     <t xml:space="preserve"> GCTATAAGTA</t>
   </si>
   <si>
-    <t>Thread-59</t>
+    <t>59</t>
   </si>
   <si>
     <t xml:space="preserve"> CCACAATGTT</t>
   </si>
   <si>
-    <t>Thread-49</t>
+    <t>49</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTTGTCATG</t>
   </si>
   <si>
-    <t>Thread-11</t>
+    <t>11</t>
   </si>
   <si>
     <t xml:space="preserve"> CGTCCAGCAA</t>
   </si>
   <si>
-    <t>Thread-69</t>
+    <t>69</t>
   </si>
   <si>
     <t xml:space="preserve"> CTGTATTAGG</t>
   </si>
   <si>
-    <t>Thread-57</t>
+    <t>57</t>
   </si>
   <si>
     <t xml:space="preserve"> GGCTTGGACT</t>
   </si>
   <si>
-    <t>Thread-28</t>
+    <t>28</t>
   </si>
   <si>
     <t xml:space="preserve"> GAACGTGCAT</t>
   </si>
   <si>
-    <t>Thread-102</t>
+    <t>102</t>
   </si>
   <si>
     <t xml:space="preserve"> GGTGAAGATT</t>
   </si>
   <si>
-    <t>Thread-118</t>
+    <t>118</t>
   </si>
   <si>
     <t xml:space="preserve"> GGTATTCTCA</t>
   </si>
   <si>
-    <t>Thread-103</t>
+    <t>103</t>
   </si>
   <si>
     <t xml:space="preserve"> TACTTCCGGG</t>
   </si>
   <si>
-    <t>Thread-79</t>
+    <t>79</t>
   </si>
   <si>
     <t xml:space="preserve"> GCACACCGTA</t>
   </si>
   <si>
-    <t>Thread-60</t>
+    <t>60</t>
   </si>
   <si>
     <t xml:space="preserve"> GCGCATAACC</t>
   </si>
   <si>
-    <t>Thread-73</t>
+    <t>73</t>
   </si>
   <si>
     <t xml:space="preserve"> TAGTTTGTAT</t>
   </si>
   <si>
-    <t>Thread-61</t>
+    <t>61</t>
   </si>
   <si>
     <t xml:space="preserve"> TTAAACGGCT</t>
   </si>
   <si>
-    <t>Thread-68</t>
+    <t>68</t>
   </si>
   <si>
     <t xml:space="preserve"> GGACCAATGG</t>
   </si>
   <si>
-    <t>Thread-120</t>
+    <t>120</t>
   </si>
   <si>
     <t xml:space="preserve"> GGGTAATGTT</t>
   </si>
   <si>
-    <t>Thread-121</t>
+    <t>121</t>
   </si>
   <si>
     <t xml:space="preserve"> TCCTTTAGTC</t>
   </si>
   <si>
-    <t>Thread-85</t>
+    <t>85</t>
   </si>
   <si>
     <t xml:space="preserve"> TCCTATACCC</t>
   </si>
   <si>
-    <t>Thread-125</t>
+    <t>125</t>
   </si>
   <si>
     <t xml:space="preserve"> GGTTGCATAT</t>
   </si>
   <si>
-    <t>Thread-70</t>
+    <t>70</t>
   </si>
   <si>
     <t xml:space="preserve"> AGCTTGAGTA</t>
   </si>
   <si>
-    <t>Thread-13</t>
+    <t>13</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCTCATAAG</t>
   </si>
   <si>
-    <t>Thread-33</t>
+    <t>33</t>
   </si>
   <si>
     <t xml:space="preserve"> CTGCCTAGTG</t>
   </si>
   <si>
-    <t>Thread-127</t>
+    <t>127</t>
   </si>
   <si>
     <t xml:space="preserve"> TGTATTGCCC</t>
   </si>
   <si>
-    <t>Thread-108</t>
+    <t>108</t>
   </si>
   <si>
     <t xml:space="preserve"> GGTGTATTAT</t>
   </si>
   <si>
-    <t>Thread-99</t>
+    <t>99</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCCGCCTCA</t>
   </si>
   <si>
-    <t>Thread-131</t>
+    <t>131</t>
   </si>
   <si>
     <t xml:space="preserve"> GGGTAAGATT</t>
   </si>
   <si>
-    <t>Thread-110</t>
+    <t>110</t>
   </si>
   <si>
     <t xml:space="preserve"> TCCCGTGCCC</t>
   </si>
   <si>
-    <t>Thread-5</t>
+    <t>5</t>
   </si>
   <si>
     <t xml:space="preserve"> TGTATACAGG</t>
   </si>
   <si>
-    <t>Thread-41</t>
+    <t>41</t>
   </si>
   <si>
     <t xml:space="preserve"> TTAAAAAACT</t>
   </si>
   <si>
-    <t>Thread-12</t>
+    <t>12</t>
   </si>
   <si>
     <t xml:space="preserve"> ATGAGTTTCT</t>
   </si>
   <si>
-    <t>Thread-4</t>
+    <t>4</t>
   </si>
   <si>
     <t xml:space="preserve"> GGCGTGCTAC</t>
   </si>
   <si>
-    <t>Thread-67</t>
+    <t>67</t>
   </si>
   <si>
     <t xml:space="preserve"> GTGCAGTTCC</t>
   </si>
   <si>
-    <t>Thread-7</t>
+    <t>7</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCACCGCTC</t>
   </si>
   <si>
-    <t>Thread-52</t>
+    <t>52</t>
   </si>
   <si>
     <t xml:space="preserve"> CTGTTGCTGC</t>
   </si>
   <si>
-    <t>Thread-54</t>
+    <t>54</t>
   </si>
   <si>
     <t xml:space="preserve"> GCATTAGGAA</t>
   </si>
   <si>
-    <t>Thread-27</t>
+    <t>27</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAACAGCTG</t>
   </si>
   <si>
-    <t>Thread-24</t>
+    <t>24</t>
   </si>
   <si>
     <t xml:space="preserve"> AGAATTTGAA</t>
   </si>
   <si>
-    <t>Thread-133</t>
+    <t>133</t>
   </si>
   <si>
     <t xml:space="preserve"> TGATCCTTAC</t>
   </si>
   <si>
-    <t>Thread-134</t>
+    <t>134</t>
   </si>
   <si>
     <t xml:space="preserve"> GAACGTACCC</t>
   </si>
   <si>
-    <t>Thread-135</t>
+    <t>135</t>
   </si>
   <si>
     <t xml:space="preserve"> TCCCGCGCCC</t>
   </si>
   <si>
-    <t>Thread-137</t>
+    <t>137</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTGGTGACA</t>
   </si>
   <si>
-    <t>Thread-139</t>
+    <t>139</t>
   </si>
   <si>
     <t xml:space="preserve"> TCCTCTAGCC</t>
   </si>
   <si>
-    <t>Thread-104</t>
+    <t>104</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCTGCAGCA</t>
   </si>
   <si>
-    <t>Thread-141</t>
+    <t>141</t>
   </si>
   <si>
     <t xml:space="preserve"> AGCATAAGTA</t>
   </si>
   <si>
-    <t>Thread-119</t>
+    <t>119</t>
   </si>
   <si>
     <t xml:space="preserve"> TTCAGCAGAG</t>
   </si>
   <si>
-    <t>Thread-142</t>
+    <t>142</t>
   </si>
   <si>
     <t xml:space="preserve"> ACCTTGGACT</t>
   </si>
   <si>
-    <t>Thread-35</t>
+    <t>35</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTGATCTAA</t>
   </si>
   <si>
-    <t>Thread-38</t>
+    <t>38</t>
   </si>
   <si>
     <t xml:space="preserve"> CTCGGGGCTT</t>
   </si>
   <si>
-    <t>Thread-45</t>
+    <t>45</t>
   </si>
   <si>
     <t xml:space="preserve"> TGATTATTAC</t>
   </si>
   <si>
-    <t>Thread-40</t>
+    <t>40</t>
   </si>
   <si>
     <t xml:space="preserve"> TCGGGTCTTC</t>
   </si>
   <si>
-    <t>Thread-143</t>
+    <t>143</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCCGTGCCA</t>
   </si>
   <si>
-    <t>Thread-145</t>
+    <t>145</t>
   </si>
   <si>
     <t xml:space="preserve"> TCCTGTGCCC</t>
   </si>
   <si>
-    <t>Thread-126</t>
+    <t>126</t>
   </si>
   <si>
     <t xml:space="preserve"> GGACCAATTG</t>
   </si>
   <si>
-    <t>Thread-148</t>
-  </si>
-  <si>
-    <t>Thread-26</t>
-  </si>
-  <si>
-    <t>Thread-64</t>
+    <t>148</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>64</t>
   </si>
   <si>
     <t xml:space="preserve"> TTCCATAATG</t>
   </si>
   <si>
-    <t>Thread-21</t>
+    <t>21</t>
   </si>
   <si>
     <t xml:space="preserve"> CTGTCCCCTA</t>
   </si>
   <si>
-    <t>Thread-29</t>
+    <t>29</t>
   </si>
   <si>
     <t xml:space="preserve"> TGGGAGGATT</t>
   </si>
   <si>
-    <t>Thread-62</t>
+    <t>62</t>
   </si>
   <si>
     <t xml:space="preserve"> GAAGTTGACG</t>
   </si>
   <si>
-    <t>Thread-150</t>
+    <t>150</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTTGACACA</t>
   </si>
   <si>
-    <t>Thread-94</t>
+    <t>94</t>
   </si>
   <si>
     <t xml:space="preserve"> GCGATGTCCC</t>
   </si>
   <si>
-    <t>Thread-124</t>
+    <t>124</t>
   </si>
   <si>
     <t xml:space="preserve"> GCAGATCTAA</t>
   </si>
   <si>
-    <t>Thread-153</t>
+    <t>153</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCCGCTGCA</t>
   </si>
   <si>
-    <t>Thread-112</t>
+    <t>112</t>
   </si>
   <si>
     <t xml:space="preserve"> GGACACCGTA</t>
   </si>
   <si>
-    <t>Thread-106</t>
+    <t>106</t>
   </si>
   <si>
     <t xml:space="preserve"> TGTATTAGCC</t>
   </si>
   <si>
-    <t>Thread-154</t>
+    <t>154</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCTTCCGTA</t>
   </si>
   <si>
-    <t>Thread-122</t>
+    <t>122</t>
   </si>
   <si>
     <t xml:space="preserve"> GCACACCGCG</t>
   </si>
   <si>
-    <t>Thread-156</t>
+    <t>156</t>
   </si>
   <si>
     <t xml:space="preserve"> TCACATTGTT</t>
   </si>
   <si>
-    <t>Thread-157</t>
-  </si>
-  <si>
-    <t>Thread-158</t>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
   </si>
   <si>
     <t xml:space="preserve"> GAACATACCC</t>
   </si>
   <si>
-    <t>Thread-160</t>
+    <t>160</t>
   </si>
   <si>
     <t xml:space="preserve"> GAAGTTGACA</t>
   </si>
   <si>
-    <t>Thread-138</t>
+    <t>138</t>
   </si>
   <si>
     <t xml:space="preserve"> AATTTGCACA</t>
   </si>
   <si>
-    <t>Thread-161</t>
+    <t>161</t>
   </si>
   <si>
     <t xml:space="preserve"> CTAAACGCTT</t>
   </si>
   <si>
-    <t>Thread-117</t>
+    <t>117</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTGCACACA</t>
   </si>
   <si>
-    <t>Thread-165</t>
+    <t>165</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCTGATGCT</t>
   </si>
   <si>
-    <t>Thread-10</t>
+    <t>10</t>
   </si>
   <si>
     <t xml:space="preserve"> AATTTGTTTT</t>
   </si>
   <si>
-    <t>Thread-166</t>
+    <t>166</t>
   </si>
   <si>
     <t xml:space="preserve"> GCACAATCAA</t>
   </si>
   <si>
-    <t>Thread-167</t>
+    <t>167</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCTTCTCCC</t>
   </si>
   <si>
-    <t>Thread-107</t>
+    <t>107</t>
   </si>
   <si>
     <t xml:space="preserve"> CTGGTCCCTA</t>
   </si>
   <si>
-    <t>Thread-168</t>
+    <t>168</t>
   </si>
   <si>
     <t xml:space="preserve"> CCATGCTGTT</t>
   </si>
   <si>
-    <t>Thread-169</t>
+    <t>169</t>
   </si>
   <si>
     <t xml:space="preserve"> AATGCAGACA</t>
   </si>
   <si>
-    <t>Thread-129</t>
+    <t>129</t>
   </si>
   <si>
     <t xml:space="preserve"> TCACAATGTT</t>
   </si>
   <si>
-    <t>Thread-146</t>
-  </si>
-  <si>
-    <t>Thread-140</t>
-  </si>
-  <si>
-    <t>Thread-172</t>
+    <t>146</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>172</t>
   </si>
   <si>
     <t xml:space="preserve"> TCCTCATAAC</t>
   </si>
   <si>
-    <t>Thread-174</t>
+    <t>174</t>
   </si>
   <si>
     <t xml:space="preserve"> TCCTATCTCC</t>
   </si>
   <si>
-    <t>Thread-176</t>
+    <t>176</t>
   </si>
   <si>
     <t xml:space="preserve"> AATCACCGTA</t>
   </si>
   <si>
-    <t>Thread-178</t>
+    <t>178</t>
   </si>
   <si>
     <t xml:space="preserve"> ACCGTTGTAA</t>
   </si>
   <si>
-    <t>Thread-180</t>
+    <t>180</t>
   </si>
   <si>
     <t xml:space="preserve"> ACAGATCTAA</t>
   </si>
   <si>
-    <t>Thread-116</t>
+    <t>116</t>
   </si>
   <si>
     <t xml:space="preserve"> TCCTATAGCC</t>
   </si>
   <si>
-    <t>Thread-181</t>
+    <t>181</t>
   </si>
   <si>
     <t xml:space="preserve"> GGCTGATGCA</t>
   </si>
   <si>
-    <t>Thread-147</t>
+    <t>147</t>
   </si>
   <si>
     <t xml:space="preserve"> GCAGTTGACG</t>
   </si>
   <si>
-    <t>Thread-183</t>
+    <t>183</t>
   </si>
   <si>
     <t xml:space="preserve"> TTATCATATT</t>
   </si>
   <si>
-    <t>Thread-23</t>
+    <t>23</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTGGACACA</t>
   </si>
   <si>
-    <t>Thread-188</t>
+    <t>188</t>
   </si>
   <si>
     <t xml:space="preserve"> TCCTATAATG</t>
   </si>
   <si>
-    <t>Thread-189</t>
-  </si>
-  <si>
-    <t>Thread-190</t>
+    <t>189</t>
+  </si>
+  <si>
+    <t>190</t>
   </si>
   <si>
     <t xml:space="preserve"> AATTCACACA</t>
   </si>
   <si>
-    <t>Thread-162</t>
-  </si>
-  <si>
-    <t>Thread-164</t>
+    <t>162</t>
+  </si>
+  <si>
+    <t>164</t>
   </si>
   <si>
     <t xml:space="preserve"> TGTAGTAGCC</t>
   </si>
   <si>
-    <t>Thread-192</t>
+    <t>192</t>
   </si>
   <si>
     <t xml:space="preserve"> ACCTATCTAA</t>
   </si>
   <si>
-    <t>Thread-193</t>
+    <t>193</t>
   </si>
   <si>
     <t xml:space="preserve"> GGGGAGGTTT</t>
   </si>
   <si>
-    <t>Thread-194</t>
+    <t>194</t>
   </si>
   <si>
     <t xml:space="preserve"> TCCCGTACCA</t>
   </si>
   <si>
-    <t>Thread-195</t>
+    <t>195</t>
   </si>
   <si>
     <t xml:space="preserve"> GAACGCAGCA</t>
   </si>
   <si>
-    <t>Thread-200</t>
+    <t>200</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTCACCGCG</t>
   </si>
   <si>
-    <t>Thread-199</t>
+    <t>199</t>
   </si>
   <si>
     <t xml:space="preserve"> GCACGATGCA</t>
   </si>
   <si>
-    <t>Thread-163</t>
-  </si>
-  <si>
-    <t>Thread-175</t>
-  </si>
-  <si>
-    <t>Thread-203</t>
+    <t>163</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>203</t>
   </si>
   <si>
     <t xml:space="preserve"> TTCCATACCC</t>
   </si>
   <si>
-    <t>Thread-206</t>
+    <t>206</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCTTTAGCC</t>
   </si>
   <si>
-    <t>Thread-204</t>
-  </si>
-  <si>
-    <t>Thread-208</t>
+    <t>204</t>
+  </si>
+  <si>
+    <t>208</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCTATACCA</t>
   </si>
   <si>
-    <t>Thread-155</t>
+    <t>155</t>
   </si>
   <si>
     <t xml:space="preserve"> CTCAACGGCT</t>
   </si>
   <si>
-    <t>Thread-210</t>
+    <t>210</t>
   </si>
   <si>
     <t xml:space="preserve"> TCCTATTGTT</t>
   </si>
   <si>
-    <t>Thread-211</t>
+    <t>211</t>
   </si>
   <si>
     <t xml:space="preserve"> AATGCATTTT</t>
   </si>
   <si>
-    <t>Thread-159</t>
+    <t>159</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCTCAAGCA</t>
   </si>
   <si>
-    <t>Thread-95</t>
-  </si>
-  <si>
-    <t>Thread-170</t>
-  </si>
-  <si>
-    <t>Thread-132</t>
+    <t>95</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>132</t>
   </si>
   <si>
     <t xml:space="preserve"> CTCATGTCCT</t>
   </si>
   <si>
-    <t>Thread-212</t>
+    <t>212</t>
   </si>
   <si>
     <t xml:space="preserve"> GAACGTGCAG</t>
   </si>
   <si>
-    <t>Thread-213</t>
+    <t>213</t>
   </si>
   <si>
     <t xml:space="preserve"> TGGTAGATTT</t>
   </si>
   <si>
-    <t>Thread-214</t>
+    <t>214</t>
   </si>
   <si>
     <t xml:space="preserve"> CTCGACGGCT</t>
   </si>
   <si>
-    <t>Thread-173</t>
+    <t>173</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCCGTGCCC</t>
   </si>
   <si>
-    <t>Thread-152</t>
+    <t>152</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTGCAGTTT</t>
   </si>
   <si>
-    <t>Thread-149</t>
+    <t>149</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCTGATGCA</t>
   </si>
   <si>
-    <t>Thread-16</t>
+    <t>16</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCTGCCTCA</t>
   </si>
   <si>
-    <t>Thread-216</t>
+    <t>216</t>
   </si>
   <si>
     <t xml:space="preserve"> GCACCAATTA</t>
   </si>
   <si>
-    <t>Thread-144</t>
+    <t>144</t>
   </si>
   <si>
     <t xml:space="preserve"> GAACGTGCAA</t>
   </si>
   <si>
-    <t>Thread-177</t>
+    <t>177</t>
   </si>
   <si>
     <t xml:space="preserve"> TCCCGTGCCA</t>
   </si>
   <si>
-    <t>Thread-186</t>
+    <t>186</t>
   </si>
   <si>
     <t xml:space="preserve"> GCGTCCCCTC</t>
   </si>
   <si>
-    <t>Thread-222</t>
+    <t>222</t>
   </si>
   <si>
     <t xml:space="preserve"> TCCTGATAAT</t>
   </si>
   <si>
-    <t>Thread-221</t>
+    <t>221</t>
   </si>
   <si>
     <t xml:space="preserve"> GCACCACGCG</t>
   </si>
   <si>
-    <t>Thread-223</t>
+    <t>223</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCTGCCACC</t>
   </si>
   <si>
-    <t>Thread-182</t>
+    <t>182</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCTCATCAA</t>
   </si>
   <si>
-    <t>Thread-224</t>
+    <t>224</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTGCTGACT</t>
   </si>
   <si>
-    <t>Thread-225</t>
-  </si>
-  <si>
-    <t>Thread-179</t>
+    <t>225</t>
+  </si>
+  <si>
+    <t>179</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCTCATACA</t>
   </si>
   <si>
-    <t>Thread-185</t>
+    <t>185</t>
   </si>
   <si>
     <t xml:space="preserve"> TCACAATAAT</t>
   </si>
   <si>
-    <t>Thread-230</t>
+    <t>230</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCTATAGCA</t>
   </si>
   <si>
-    <t>Thread-111</t>
+    <t>111</t>
   </si>
   <si>
     <t xml:space="preserve"> GGGTAGATTT</t>
   </si>
   <si>
-    <t>Thread-231</t>
+    <t>231</t>
   </si>
   <si>
     <t xml:space="preserve"> AGACACCACG</t>
   </si>
   <si>
-    <t>Thread-205</t>
+    <t>205</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTTTGTTTT</t>
   </si>
   <si>
-    <t>Thread-235</t>
+    <t>235</t>
   </si>
   <si>
     <t xml:space="preserve"> TCCCGTACCC</t>
   </si>
   <si>
-    <t>Thread-184</t>
+    <t>184</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTGGAGACA</t>
   </si>
   <si>
-    <t>Thread-236</t>
-  </si>
-  <si>
-    <t>Thread-123</t>
+    <t>236</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTGCAGACA</t>
   </si>
   <si>
-    <t>Thread-237</t>
+    <t>237</t>
   </si>
   <si>
     <t xml:space="preserve"> GCAGTTCTAA</t>
   </si>
   <si>
-    <t>Thread-238</t>
+    <t>238</t>
   </si>
   <si>
     <t xml:space="preserve"> ACCTTGCTCG</t>
   </si>
   <si>
-    <t>Thread-239</t>
+    <t>239</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTGCTGATT</t>
   </si>
   <si>
-    <t>Thread-240</t>
+    <t>240</t>
   </si>
   <si>
     <t xml:space="preserve"> TTAAGGTCCT</t>
   </si>
   <si>
-    <t>Thread-241</t>
+    <t>241</t>
   </si>
   <si>
     <t xml:space="preserve"> GACTGGGATA</t>
   </si>
   <si>
-    <t>Thread-243</t>
-  </si>
-  <si>
-    <t>Thread-191</t>
+    <t>243</t>
+  </si>
+  <si>
+    <t>191</t>
   </si>
   <si>
     <t xml:space="preserve"> TCGGGAAATC</t>
   </si>
   <si>
-    <t>Thread-244</t>
-  </si>
-  <si>
-    <t>Thread-202</t>
+    <t>244</t>
+  </si>
+  <si>
+    <t>202</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCTGGGATA</t>
   </si>
   <si>
-    <t>Thread-245</t>
+    <t>245</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCTCATGTA</t>
   </si>
   <si>
-    <t>Thread-247</t>
+    <t>247</t>
   </si>
   <si>
     <t xml:space="preserve"> GAACGTTAAA</t>
   </si>
   <si>
-    <t>Thread-215</t>
+    <t>215</t>
   </si>
   <si>
     <t xml:space="preserve"> TCGTAAGACC</t>
   </si>
   <si>
-    <t>Thread-248</t>
-  </si>
-  <si>
-    <t>Thread-249</t>
+    <t>248</t>
+  </si>
+  <si>
+    <t>249</t>
   </si>
   <si>
     <t xml:space="preserve"> GCACACCGAA</t>
   </si>
   <si>
-    <t>Thread-251</t>
+    <t>251</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCCGTGCCA</t>
   </si>
   <si>
-    <t>Thread-253</t>
-  </si>
-  <si>
-    <t>Thread-254</t>
+    <t>253</t>
+  </si>
+  <si>
+    <t>254</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCTGCCTCA</t>
   </si>
   <si>
-    <t>Thread-256</t>
+    <t>256</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTGGACTAA</t>
   </si>
   <si>
-    <t>Thread-207</t>
-  </si>
-  <si>
-    <t>Thread-257</t>
+    <t>207</t>
+  </si>
+  <si>
+    <t>257</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCTGCAGCA</t>
   </si>
   <si>
-    <t>Thread-258</t>
+    <t>258</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTGTTGACT</t>
   </si>
   <si>
-    <t>Thread-259</t>
-  </si>
-  <si>
-    <t>Thread-187</t>
+    <t>259</t>
+  </si>
+  <si>
+    <t>187</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCTGCCATA</t>
   </si>
   <si>
-    <t>Thread-260</t>
+    <t>260</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTGGCCACA</t>
   </si>
   <si>
-    <t>Thread-261</t>
-  </si>
-  <si>
-    <t>Thread-196</t>
-  </si>
-  <si>
-    <t>Thread-263</t>
+    <t>261</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>263</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCGATGATA</t>
   </si>
   <si>
-    <t>Thread-198</t>
+    <t>198</t>
   </si>
   <si>
     <t xml:space="preserve"> AGACACCGTA</t>
   </si>
   <si>
-    <t>Thread-264</t>
+    <t>264</t>
   </si>
   <si>
     <t xml:space="preserve"> TCCCGTGGTA</t>
   </si>
   <si>
-    <t>Thread-201</t>
+    <t>201</t>
   </si>
   <si>
     <t xml:space="preserve"> CTCGGGTCCT</t>
   </si>
   <si>
-    <t>Thread-266</t>
+    <t>266</t>
   </si>
   <si>
     <t xml:space="preserve"> GGGTATATTT</t>
   </si>
   <si>
-    <t>Thread-268</t>
+    <t>268</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTCACCGTA</t>
   </si>
   <si>
-    <t>Thread-269</t>
+    <t>269</t>
   </si>
   <si>
     <t xml:space="preserve"> ACAGTAGACA</t>
   </si>
   <si>
-    <t>Thread-270</t>
+    <t>270</t>
   </si>
   <si>
     <t xml:space="preserve"> GCAGACCGCG</t>
   </si>
   <si>
-    <t>Thread-128</t>
+    <t>128</t>
   </si>
   <si>
     <t xml:space="preserve"> TTATGCTGTT</t>
   </si>
   <si>
-    <t>Thread-218</t>
+    <t>218</t>
   </si>
   <si>
     <t xml:space="preserve"> ACACACCTAA</t>
   </si>
   <si>
-    <t>Thread-227</t>
+    <t>227</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCTCATACT</t>
   </si>
   <si>
-    <t>Thread-273</t>
-  </si>
-  <si>
-    <t>Thread-229</t>
+    <t>273</t>
+  </si>
+  <si>
+    <t>229</t>
   </si>
   <si>
     <t xml:space="preserve"> TCACAAAGCA</t>
   </si>
   <si>
-    <t>Thread-130</t>
-  </si>
-  <si>
-    <t>Thread-274</t>
+    <t>130</t>
+  </si>
+  <si>
+    <t>274</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTGGACGCG</t>
   </si>
   <si>
-    <t>Thread-275</t>
+    <t>275</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTGCTCTAA</t>
   </si>
   <si>
-    <t>Thread-276</t>
-  </si>
-  <si>
-    <t>Thread-234</t>
+    <t>276</t>
+  </si>
+  <si>
+    <t>234</t>
   </si>
   <si>
     <t xml:space="preserve"> GCATTGTTTG</t>
   </si>
   <si>
-    <t>Thread-277</t>
+    <t>277</t>
   </si>
   <si>
     <t xml:space="preserve"> TTATGTGCAT</t>
   </si>
   <si>
-    <t>Thread-279</t>
+    <t>279</t>
   </si>
   <si>
     <t xml:space="preserve"> GAACGTGTTT</t>
   </si>
   <si>
-    <t>Thread-280</t>
-  </si>
-  <si>
-    <t>Thread-281</t>
+    <t>280</t>
+  </si>
+  <si>
+    <t>281</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTTTAGACA</t>
   </si>
   <si>
-    <t>Thread-136</t>
-  </si>
-  <si>
-    <t>Thread-282</t>
+    <t>136</t>
+  </si>
+  <si>
+    <t>282</t>
   </si>
   <si>
     <t xml:space="preserve"> GCAGTGTTTT</t>
   </si>
   <si>
-    <t>Thread-255</t>
-  </si>
-  <si>
-    <t>Thread-283</t>
+    <t>255</t>
+  </si>
+  <si>
+    <t>283</t>
   </si>
   <si>
     <t xml:space="preserve"> TCCCGGGCCA</t>
   </si>
   <si>
-    <t>Thread-284</t>
-  </si>
-  <si>
-    <t>Thread-232</t>
+    <t>284</t>
+  </si>
+  <si>
+    <t>232</t>
   </si>
   <si>
     <t xml:space="preserve"> GAACGGATTT</t>
   </si>
   <si>
-    <t>Thread-285</t>
+    <t>285</t>
   </si>
   <si>
     <t xml:space="preserve"> ACCTTGCGCG</t>
   </si>
   <si>
-    <t>Thread-246</t>
+    <t>246</t>
   </si>
   <si>
     <t xml:space="preserve"> TGTAGTAGTA</t>
   </si>
   <si>
-    <t>Thread-286</t>
+    <t>286</t>
   </si>
   <si>
     <t xml:space="preserve"> GCAGATGTTA</t>
   </si>
   <si>
-    <t>Thread-287</t>
+    <t>287</t>
   </si>
   <si>
     <t xml:space="preserve"> ACACACCGTA</t>
   </si>
   <si>
-    <t>Thread-219</t>
+    <t>219</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCTGCCTTA</t>
   </si>
   <si>
-    <t>Thread-290</t>
+    <t>290</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCTCATAAA</t>
   </si>
   <si>
-    <t>Thread-228</t>
-  </si>
-  <si>
-    <t>Thread-291</t>
+    <t>228</t>
+  </si>
+  <si>
+    <t>291</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCGAGGATA</t>
   </si>
   <si>
-    <t>Thread-292</t>
+    <t>292</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCTCGGACA</t>
   </si>
   <si>
-    <t>Thread-294</t>
+    <t>294</t>
   </si>
   <si>
     <t xml:space="preserve"> ACAGTTGACA</t>
   </si>
   <si>
-    <t>Thread-295</t>
-  </si>
-  <si>
-    <t>Thread-296</t>
+    <t>295</t>
+  </si>
+  <si>
+    <t>296</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCTGGGACA</t>
   </si>
   <si>
-    <t>Thread-297</t>
+    <t>297</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCTCATGCA</t>
   </si>
   <si>
-    <t>Thread-298</t>
+    <t>298</t>
   </si>
   <si>
     <t xml:space="preserve"> ACCTCAGACA</t>
   </si>
   <si>
-    <t>Thread-262</t>
-  </si>
-  <si>
-    <t>Thread-300</t>
+    <t>262</t>
+  </si>
+  <si>
+    <t>300</t>
   </si>
   <si>
     <t xml:space="preserve"> GCAGAGCTAA</t>
   </si>
   <si>
-    <t>Thread-242</t>
-  </si>
-  <si>
-    <t>Thread-302</t>
-  </si>
-  <si>
-    <t>Thread-226</t>
-  </si>
-  <si>
-    <t>Thread-303</t>
+    <t>242</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>303</t>
   </si>
   <si>
     <t xml:space="preserve"> ACACACCGCA</t>
   </si>
   <si>
-    <t>Thread-272</t>
+    <t>272</t>
   </si>
   <si>
     <t xml:space="preserve"> TTATGCCTCT</t>
   </si>
   <si>
-    <t>Thread-305</t>
+    <t>305</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCTCAAGCA</t>
   </si>
   <si>
-    <t>Thread-151</t>
+    <t>151</t>
   </si>
   <si>
     <t xml:space="preserve"> ACCTTGCTAA</t>
   </si>
   <si>
-    <t>Thread-220</t>
-  </si>
-  <si>
-    <t>Thread-308</t>
-  </si>
-  <si>
-    <t>Thread-307</t>
-  </si>
-  <si>
-    <t>Thread-311</t>
+    <t>220</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>311</t>
   </si>
   <si>
     <t xml:space="preserve"> TGTTCAAGTA</t>
   </si>
   <si>
-    <t>Thread-217</t>
-  </si>
-  <si>
-    <t>Thread-312</t>
+    <t>217</t>
+  </si>
+  <si>
+    <t>312</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCTGCCTCT</t>
   </si>
   <si>
-    <t>Thread-313</t>
-  </si>
-  <si>
-    <t>Thread-316</t>
+    <t>313</t>
+  </si>
+  <si>
+    <t>316</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCTGAAGCA</t>
   </si>
   <si>
-    <t>Thread-315</t>
+    <t>315</t>
   </si>
   <si>
     <t xml:space="preserve"> TTATGCTGTA</t>
   </si>
   <si>
-    <t>Thread-278</t>
+    <t>278</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCTAGGATA</t>
   </si>
   <si>
-    <t>Thread-318</t>
-  </si>
-  <si>
-    <t>Thread-317</t>
+    <t>318</t>
+  </si>
+  <si>
+    <t>317</t>
   </si>
   <si>
     <t xml:space="preserve"> TTCTGCCCCA</t>
   </si>
   <si>
-    <t>Thread-252</t>
-  </si>
-  <si>
-    <t>Thread-319</t>
-  </si>
-  <si>
-    <t>Thread-197</t>
-  </si>
-  <si>
-    <t>Thread-320</t>
-  </si>
-  <si>
-    <t>Thread-265</t>
-  </si>
-  <si>
-    <t>Thread-171</t>
-  </si>
-  <si>
-    <t>Thread-267</t>
-  </si>
-  <si>
-    <t>Thread-288</t>
-  </si>
-  <si>
-    <t>Thread-271</t>
-  </si>
-  <si>
-    <t>Thread-209</t>
-  </si>
-  <si>
-    <t>Thread-326</t>
+    <t>252</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>326</t>
   </si>
   <si>
     <t xml:space="preserve"> AGACACCGAA</t>
   </si>
   <si>
-    <t>Thread-299</t>
+    <t>299</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCTGCCTCT</t>
   </si>
   <si>
-    <t>Thread-301</t>
+    <t>301</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTTTACACA</t>
   </si>
   <si>
-    <t>Thread-329</t>
-  </si>
-  <si>
-    <t>Thread-330</t>
+    <t>329</t>
+  </si>
+  <si>
+    <t>330</t>
   </si>
   <si>
     <t xml:space="preserve"> ACAGTTCTCA</t>
   </si>
   <si>
-    <t>Thread-333</t>
+    <t>333</t>
   </si>
   <si>
     <t xml:space="preserve"> GCACAAAGCA</t>
   </si>
   <si>
-    <t>Thread-334</t>
+    <t>334</t>
   </si>
   <si>
     <t xml:space="preserve"> TCACGTGCAA</t>
   </si>
   <si>
-    <t>Thread-332</t>
-  </si>
-  <si>
-    <t>Thread-289</t>
-  </si>
-  <si>
-    <t>Thread-250</t>
-  </si>
-  <si>
-    <t>Thread-337</t>
+    <t>332</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>337</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCGAGGGCA</t>
   </si>
   <si>
-    <t>Thread-304</t>
-  </si>
-  <si>
-    <t>Thread-338</t>
+    <t>304</t>
+  </si>
+  <si>
+    <t>338</t>
   </si>
   <si>
     <t xml:space="preserve"> GAACGAAGCA</t>
   </si>
   <si>
-    <t>Thread-339</t>
+    <t>339</t>
   </si>
   <si>
     <t xml:space="preserve"> ACAGTTCTAA</t>
   </si>
   <si>
-    <t>Thread-340</t>
+    <t>340</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCTGTGCAA</t>
   </si>
   <si>
-    <t>Thread-342</t>
+    <t>342</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCTCGAGCA</t>
   </si>
   <si>
-    <t>Thread-343</t>
-  </si>
-  <si>
-    <t>Thread-306</t>
+    <t>343</t>
+  </si>
+  <si>
+    <t>306</t>
   </si>
   <si>
     <t xml:space="preserve"> TTATCAAGCT</t>
   </si>
   <si>
-    <t>Thread-344</t>
+    <t>344</t>
   </si>
   <si>
     <t xml:space="preserve"> TTATAGATCT</t>
   </si>
   <si>
-    <t>Thread-345</t>
+    <t>345</t>
   </si>
   <si>
     <t xml:space="preserve"> GCTGGTCTAA</t>
   </si>
   <si>
-    <t>Thread-310</t>
-  </si>
-  <si>
-    <t>Thread-346</t>
+    <t>310</t>
+  </si>
+  <si>
+    <t>346</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTGTTCTAA</t>
   </si>
   <si>
-    <t>Thread-347</t>
-  </si>
-  <si>
-    <t>Thread-348</t>
+    <t>347</t>
+  </si>
+  <si>
+    <t>348</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCCGGATTA</t>
   </si>
   <si>
-    <t>Thread-350</t>
+    <t>350</t>
   </si>
   <si>
     <t xml:space="preserve"> GTATCAAGTA</t>
   </si>
   <si>
-    <t>Thread-314</t>
-  </si>
-  <si>
-    <t>Thread-351</t>
-  </si>
-  <si>
-    <t>Thread-352</t>
+    <t>314</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>352</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTGTACACA</t>
   </si>
   <si>
-    <t>Thread-353</t>
+    <t>353</t>
   </si>
   <si>
     <t xml:space="preserve"> TTACGTGCTT</t>
   </si>
   <si>
-    <t>Thread-354</t>
+    <t>354</t>
   </si>
   <si>
     <t xml:space="preserve"> GACTGTGCAA</t>
   </si>
   <si>
-    <t>Thread-355</t>
-  </si>
-  <si>
-    <t>Thread-357</t>
-  </si>
-  <si>
-    <t>Thread-356</t>
+    <t>355</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>356</t>
   </si>
   <si>
     <t xml:space="preserve"> ACAGTTCACA</t>
   </si>
   <si>
-    <t>Thread-293</t>
+    <t>293</t>
   </si>
   <si>
     <t xml:space="preserve"> TTATAGATTT</t>
   </si>
   <si>
-    <t>Thread-233</t>
-  </si>
-  <si>
-    <t>Thread-358</t>
+    <t>233</t>
+  </si>
+  <si>
+    <t>358</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTGGACATA</t>
   </si>
   <si>
-    <t>Thread-359</t>
-  </si>
-  <si>
-    <t>Thread-360</t>
+    <t>359</t>
+  </si>
+  <si>
+    <t>360</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTGTAGACA</t>
   </si>
   <si>
-    <t>Thread-327</t>
-  </si>
-  <si>
-    <t>Thread-328</t>
+    <t>327</t>
+  </si>
+  <si>
+    <t>328</t>
   </si>
   <si>
     <t xml:space="preserve"> GACCGGATTT</t>
   </si>
   <si>
-    <t>Thread-309</t>
+    <t>309</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCTCAATTT</t>
   </si>
   <si>
-    <t>Thread-363</t>
+    <t>363</t>
   </si>
   <si>
     <t xml:space="preserve"> TTATAGGATA</t>
   </si>
   <si>
-    <t>Thread-367</t>
+    <t>367</t>
   </si>
   <si>
     <t xml:space="preserve"> TTCTAGGATT</t>
   </si>
   <si>
-    <t>Thread-331</t>
-  </si>
-  <si>
-    <t>Thread-325</t>
-  </si>
-  <si>
-    <t>Thread-371</t>
+    <t>331</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>371</t>
   </si>
   <si>
     <t xml:space="preserve"> TTATGCCATT</t>
   </si>
   <si>
-    <t>Thread-372</t>
-  </si>
-  <si>
-    <t>Thread-373</t>
+    <t>372</t>
+  </si>
+  <si>
+    <t>373</t>
   </si>
   <si>
     <t xml:space="preserve"> TTATAGGATT</t>
   </si>
   <si>
-    <t>Thread-374</t>
+    <t>374</t>
   </si>
   <si>
     <t xml:space="preserve"> GCTTTATTTG</t>
   </si>
   <si>
-    <t>Thread-335</t>
+    <t>335</t>
   </si>
   <si>
     <t xml:space="preserve"> GCATTATTTG</t>
   </si>
   <si>
-    <t>Thread-375</t>
+    <t>375</t>
   </si>
   <si>
     <t xml:space="preserve"> TTCCGGATTT</t>
   </si>
   <si>
-    <t>Thread-376</t>
+    <t>376</t>
   </si>
   <si>
     <t xml:space="preserve"> GACCCAATTT</t>
   </si>
   <si>
-    <t>Thread-341</t>
+    <t>341</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCTACCTCT</t>
   </si>
   <si>
-    <t>Thread-321</t>
-  </si>
-  <si>
-    <t>Thread-336</t>
-  </si>
-  <si>
-    <t>Thread-324</t>
-  </si>
-  <si>
-    <t>Thread-365</t>
+    <t>321</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>365</t>
   </si>
   <si>
     <t xml:space="preserve"> GCTTTACACG</t>
   </si>
   <si>
-    <t>Thread-361</t>
+    <t>361</t>
   </si>
   <si>
     <t xml:space="preserve"> TTCTGCCGCT</t>
   </si>
   <si>
-    <t>Thread-382</t>
+    <t>382</t>
   </si>
   <si>
     <t xml:space="preserve"> GCAGGACTAA</t>
   </si>
   <si>
-    <t>Thread-383</t>
-  </si>
-  <si>
-    <t>Thread-381</t>
-  </si>
-  <si>
-    <t>Thread-384</t>
+    <t>383</t>
+  </si>
+  <si>
+    <t>381</t>
+  </si>
+  <si>
+    <t>384</t>
   </si>
   <si>
     <t xml:space="preserve"> TTATGCTGAA</t>
   </si>
   <si>
-    <t>Thread-386</t>
+    <t>386</t>
   </si>
   <si>
     <t xml:space="preserve"> ACAGGACACA</t>
   </si>
   <si>
-    <t>Thread-387</t>
+    <t>387</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCTCAATTT</t>
   </si>
   <si>
-    <t>Thread-322</t>
-  </si>
-  <si>
-    <t>Thread-369</t>
-  </si>
-  <si>
-    <t>Thread-388</t>
+    <t>322</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>388</t>
   </si>
   <si>
     <t xml:space="preserve"> ACACTTCTAA</t>
   </si>
   <si>
-    <t>Thread-389</t>
+    <t>389</t>
   </si>
   <si>
     <t xml:space="preserve"> ACAGGACTAA</t>
   </si>
   <si>
-    <t>Thread-366</t>
+    <t>366</t>
   </si>
   <si>
     <t xml:space="preserve"> TTATGTGCAA</t>
   </si>
   <si>
-    <t>Thread-391</t>
+    <t>391</t>
   </si>
   <si>
     <t xml:space="preserve"> TTATACCTTT</t>
   </si>
   <si>
-    <t>Thread-368</t>
-  </si>
-  <si>
-    <t>Thread-392</t>
-  </si>
-  <si>
-    <t>Thread-393</t>
-  </si>
-  <si>
-    <t>Thread-370</t>
+    <t>368</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>393</t>
+  </si>
+  <si>
+    <t>370</t>
   </si>
   <si>
     <t xml:space="preserve"> TTATGCCTTT</t>
   </si>
   <si>
-    <t>Thread-364</t>
-  </si>
-  <si>
-    <t>Thread-378</t>
-  </si>
-  <si>
-    <t>Thread-396</t>
-  </si>
-  <si>
-    <t>Thread-397</t>
+    <t>364</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>396</t>
+  </si>
+  <si>
+    <t>397</t>
   </si>
   <si>
     <t xml:space="preserve"> TTATGTGCTT</t>
   </si>
   <si>
-    <t>Thread-380</t>
-  </si>
-  <si>
-    <t>Thread-399</t>
-  </si>
-  <si>
-    <t>Thread-323</t>
-  </si>
-  <si>
-    <t>Thread-379</t>
+    <t>380</t>
+  </si>
+  <si>
+    <t>399</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>379</t>
   </si>
   <si>
     <t xml:space="preserve"> TTATGTGCTA</t>
   </si>
   <si>
-    <t>Thread-401</t>
-  </si>
-  <si>
-    <t>Thread-403</t>
+    <t>401</t>
+  </si>
+  <si>
+    <t>403</t>
   </si>
   <si>
     <t xml:space="preserve"> TCCTGTGCTT</t>
   </si>
   <si>
-    <t>Thread-405</t>
+    <t>405</t>
   </si>
   <si>
     <t xml:space="preserve"> TTATAGACTT</t>
   </si>
   <si>
-    <t>Thread-404</t>
+    <t>404</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCTGCTGTT</t>
   </si>
   <si>
-    <t>Thread-408</t>
-  </si>
-  <si>
-    <t>Thread-407</t>
+    <t>408</t>
+  </si>
+  <si>
+    <t>407</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCTGCCATT</t>
   </si>
   <si>
-    <t>Thread-385</t>
-  </si>
-  <si>
-    <t>Thread-394</t>
+    <t>385</t>
+  </si>
+  <si>
+    <t>394</t>
   </si>
   <si>
     <t xml:space="preserve"> TAACGTGCAA</t>
   </si>
   <si>
-    <t>Thread-411</t>
+    <t>411</t>
   </si>
   <si>
     <t xml:space="preserve"> TTATGGACTT</t>
   </si>
   <si>
-    <t>Thread-412</t>
+    <t>412</t>
   </si>
   <si>
     <t xml:space="preserve"> TTATGCCCTT</t>
   </si>
   <si>
-    <t>Thread-377</t>
-  </si>
-  <si>
-    <t>Thread-413</t>
+    <t>377</t>
+  </si>
+  <si>
+    <t>413</t>
   </si>
   <si>
     <t xml:space="preserve"> TTATGAATTT</t>
   </si>
   <si>
-    <t>Thread-395</t>
+    <t>395</t>
   </si>
   <si>
     <t xml:space="preserve"> GTATGCATTT</t>
   </si>
   <si>
-    <t>Thread-390</t>
+    <t>390</t>
   </si>
   <si>
     <t xml:space="preserve"> GTATCAATTT</t>
   </si>
   <si>
-    <t>Thread-417</t>
+    <t>417</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCTGAATTT</t>
   </si>
   <si>
-    <t>Thread-400</t>
+    <t>400</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCTGTGCTA</t>
   </si>
   <si>
-    <t>Thread-410</t>
-  </si>
-  <si>
-    <t>Thread-349</t>
-  </si>
-  <si>
-    <t>Thread-398</t>
-  </si>
-  <si>
-    <t>Thread-420</t>
-  </si>
-  <si>
-    <t>Thread-421</t>
-  </si>
-  <si>
-    <t>Thread-409</t>
+    <t>410</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>409</t>
   </si>
   <si>
     <t xml:space="preserve"> GTATGTATTT</t>
   </si>
   <si>
-    <t>Thread-422</t>
+    <t>422</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCTGTGCTA</t>
   </si>
   <si>
-    <t>Thread-406</t>
+    <t>406</t>
   </si>
   <si>
     <t xml:space="preserve"> GTATGCCTTT</t>
   </si>
   <si>
-    <t>Thread-426</t>
+    <t>426</t>
   </si>
   <si>
     <t xml:space="preserve"> GTATGAATTA</t>
   </si>
   <si>
-    <t>Thread-418</t>
-  </si>
-  <si>
-    <t>Thread-429</t>
-  </si>
-  <si>
-    <t>Thread-431</t>
+    <t>418</t>
+  </si>
+  <si>
+    <t>429</t>
+  </si>
+  <si>
+    <t>431</t>
   </si>
   <si>
     <t xml:space="preserve"> TTACGTGCAA</t>
   </si>
   <si>
-    <t>Thread-432</t>
+    <t>432</t>
   </si>
   <si>
     <t xml:space="preserve"> TTATGCCACT</t>
   </si>
   <si>
-    <t>Thread-435</t>
+    <t>435</t>
   </si>
   <si>
     <t xml:space="preserve"> GTATAGATTT</t>
   </si>
   <si>
-    <t>Thread-419</t>
-  </si>
-  <si>
-    <t>Thread-436</t>
-  </si>
-  <si>
-    <t>Thread-416</t>
-  </si>
-  <si>
-    <t>Thread-438</t>
-  </si>
-  <si>
-    <t>Thread-439</t>
-  </si>
-  <si>
-    <t>Thread-362</t>
-  </si>
-  <si>
-    <t>Thread-440</t>
-  </si>
-  <si>
-    <t>Thread-402</t>
+    <t>419</t>
+  </si>
+  <si>
+    <t>436</t>
+  </si>
+  <si>
+    <t>416</t>
+  </si>
+  <si>
+    <t>438</t>
+  </si>
+  <si>
+    <t>439</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>402</t>
   </si>
   <si>
     <t xml:space="preserve"> GTATGAATTT</t>
   </si>
   <si>
-    <t>Thread-423</t>
+    <t>423</t>
   </si>
   <si>
     <t xml:space="preserve"> GTATGGATTT</t>
   </si>
   <si>
-    <t>Thread-442</t>
+    <t>442</t>
   </si>
   <si>
     <t xml:space="preserve"> GTATGTGCTA</t>
   </si>
   <si>
-    <t>Thread-443</t>
-  </si>
-  <si>
-    <t>Thread-425</t>
-  </si>
-  <si>
-    <t>Thread-424</t>
-  </si>
-  <si>
-    <t>Thread-428</t>
+    <t>443</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>424</t>
+  </si>
+  <si>
+    <t>428</t>
   </si>
   <si>
     <t xml:space="preserve"> TTATGTATTT</t>
   </si>
   <si>
-    <t>Thread-415</t>
-  </si>
-  <si>
-    <t>Thread-448</t>
-  </si>
-  <si>
-    <t>Thread-449</t>
+    <t>415</t>
+  </si>
+  <si>
+    <t>448</t>
+  </si>
+  <si>
+    <t>449</t>
   </si>
   <si>
     <t xml:space="preserve"> TTCTGTGCTA</t>
   </si>
   <si>
-    <t>Thread-450</t>
-  </si>
-  <si>
-    <t>Thread-427</t>
-  </si>
-  <si>
-    <t>Thread-451</t>
-  </si>
-  <si>
-    <t>Thread-433</t>
-  </si>
-  <si>
-    <t>Thread-453</t>
-  </si>
-  <si>
-    <t>Thread-437</t>
-  </si>
-  <si>
-    <t>Thread-455</t>
+    <t>450</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>433</t>
+  </si>
+  <si>
+    <t>453</t>
+  </si>
+  <si>
+    <t>437</t>
+  </si>
+  <si>
+    <t>455</t>
   </si>
   <si>
     <t xml:space="preserve"> TTATGACACT</t>
   </si>
   <si>
-    <t>Thread-457</t>
-  </si>
-  <si>
-    <t>Thread-459</t>
-  </si>
-  <si>
-    <t>Thread-444</t>
-  </si>
-  <si>
-    <t>Thread-430</t>
-  </si>
-  <si>
-    <t>Thread-441</t>
-  </si>
-  <si>
-    <t>Thread-446</t>
-  </si>
-  <si>
-    <t>Thread-452</t>
+    <t>457</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>441</t>
+  </si>
+  <si>
+    <t>446</t>
+  </si>
+  <si>
+    <t>452</t>
   </si>
   <si>
     <t xml:space="preserve"> TTACGTGCAT</t>
   </si>
   <si>
-    <t>Thread-445</t>
+    <t>445</t>
   </si>
   <si>
     <t xml:space="preserve"> GTATGTGCTT</t>
   </si>
   <si>
-    <t>Thread-466</t>
-  </si>
-  <si>
-    <t>Thread-447</t>
-  </si>
-  <si>
-    <t>Thread-434</t>
-  </si>
-  <si>
-    <t>Thread-414</t>
-  </si>
-  <si>
-    <t>Thread-467</t>
-  </si>
-  <si>
-    <t>Thread-454</t>
+    <t>466</t>
+  </si>
+  <si>
+    <t>447</t>
+  </si>
+  <si>
+    <t>434</t>
+  </si>
+  <si>
+    <t>414</t>
+  </si>
+  <si>
+    <t>467</t>
+  </si>
+  <si>
+    <t>454</t>
   </si>
   <si>
     <t xml:space="preserve"> TTATGTATTA</t>
   </si>
   <si>
-    <t>Thread-460</t>
-  </si>
-  <si>
-    <t>Thread-469</t>
-  </si>
-  <si>
-    <t>Thread-461</t>
+    <t>460</t>
+  </si>
+  <si>
+    <t>469</t>
+  </si>
+  <si>
+    <t>461</t>
   </si>
   <si>
     <t xml:space="preserve"> TTATGTACTA</t>
   </si>
   <si>
-    <t>Thread-458</t>
-  </si>
-  <si>
-    <t>Thread-472</t>
+    <t>458</t>
+  </si>
+  <si>
+    <t>472</t>
   </si>
   <si>
     <t xml:space="preserve"> GTATGTACTT</t>
   </si>
   <si>
-    <t>Thread-463</t>
-  </si>
-  <si>
-    <t>Thread-465</t>
-  </si>
-  <si>
-    <t>Thread-468</t>
-  </si>
-  <si>
-    <t>Thread-462</t>
-  </si>
-  <si>
-    <t>Thread-471</t>
-  </si>
-  <si>
-    <t>Thread-470</t>
-  </si>
-  <si>
-    <t>Thread-481</t>
-  </si>
-  <si>
-    <t>Thread-482</t>
-  </si>
-  <si>
-    <t>Thread-483</t>
-  </si>
-  <si>
-    <t>Thread-485</t>
-  </si>
-  <si>
-    <t>Thread-456</t>
-  </si>
-  <si>
-    <t>Thread-477</t>
-  </si>
-  <si>
-    <t>Thread-476</t>
-  </si>
-  <si>
-    <t>Thread-475</t>
+    <t>463</t>
+  </si>
+  <si>
+    <t>465</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>462</t>
+  </si>
+  <si>
+    <t>471</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>481</t>
+  </si>
+  <si>
+    <t>482</t>
+  </si>
+  <si>
+    <t>483</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>477</t>
+  </si>
+  <si>
+    <t>476</t>
+  </si>
+  <si>
+    <t>475</t>
   </si>
   <si>
     <t xml:space="preserve"> GTATGTATTA</t>
   </si>
   <si>
-    <t>Thread-489</t>
+    <t>489</t>
   </si>
   <si>
     <t xml:space="preserve"> GTATGTACTA</t>
   </si>
   <si>
-    <t>Thread-478</t>
-  </si>
-  <si>
-    <t>Thread-479</t>
-  </si>
-  <si>
-    <t>Thread-491</t>
-  </si>
-  <si>
-    <t>Thread-492</t>
-  </si>
-  <si>
-    <t>Thread-464</t>
-  </si>
-  <si>
-    <t>Thread-480</t>
-  </si>
-  <si>
-    <t>Thread-484</t>
-  </si>
-  <si>
-    <t>Thread-486</t>
-  </si>
-  <si>
-    <t>Thread-473</t>
+    <t>478</t>
+  </si>
+  <si>
+    <t>479</t>
+  </si>
+  <si>
+    <t>491</t>
+  </si>
+  <si>
+    <t>492</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>484</t>
+  </si>
+  <si>
+    <t>486</t>
+  </si>
+  <si>
+    <t>473</t>
   </si>
   <si>
     <t xml:space="preserve"> GTATGTGTTT</t>
   </si>
   <si>
-    <t>Thread-490</t>
+    <t>490</t>
   </si>
   <si>
     <t xml:space="preserve"> TTCTGAATTT</t>
   </si>
   <si>
-    <t>Thread-496</t>
-  </si>
-  <si>
-    <t>Thread-488</t>
-  </si>
-  <si>
-    <t>Thread-487</t>
-  </si>
-  <si>
-    <t>Thread-498</t>
-  </si>
-  <si>
-    <t>Thread-474</t>
-  </si>
-  <si>
-    <t>Thread-499</t>
-  </si>
-  <si>
-    <t>Thread-501</t>
-  </si>
-  <si>
-    <t>Thread-495</t>
-  </si>
-  <si>
-    <t>Thread-504</t>
-  </si>
-  <si>
-    <t>Thread-494</t>
-  </si>
-  <si>
-    <t>Thread-497</t>
-  </si>
-  <si>
-    <t>Thread-505</t>
-  </si>
-  <si>
-    <t>Thread-500</t>
-  </si>
-  <si>
-    <t>Thread-502</t>
-  </si>
-  <si>
-    <t>Thread-493</t>
-  </si>
-  <si>
-    <t>Thread-506</t>
-  </si>
-  <si>
-    <t>Thread-507</t>
-  </si>
-  <si>
-    <t>Thread-512</t>
-  </si>
-  <si>
-    <t>Thread-503</t>
-  </si>
-  <si>
-    <t>Thread-508</t>
-  </si>
-  <si>
-    <t>Thread-514</t>
-  </si>
-  <si>
-    <t>Thread-511</t>
-  </si>
-  <si>
-    <t>Thread-515</t>
-  </si>
-  <si>
-    <t>Thread-516</t>
-  </si>
-  <si>
-    <t>Thread-510</t>
-  </si>
-  <si>
-    <t>Thread-517</t>
-  </si>
-  <si>
-    <t>Thread-520</t>
-  </si>
-  <si>
-    <t>Thread-521</t>
-  </si>
-  <si>
-    <t>Thread-518</t>
-  </si>
-  <si>
-    <t>Thread-522</t>
-  </si>
-  <si>
-    <t>Thread-524</t>
-  </si>
-  <si>
-    <t>Thread-513</t>
-  </si>
-  <si>
-    <t>Thread-519</t>
-  </si>
-  <si>
-    <t>Thread-527</t>
-  </si>
-  <si>
-    <t>Thread-529</t>
-  </si>
-  <si>
-    <t>Thread-531</t>
-  </si>
-  <si>
-    <t>Thread-523</t>
-  </si>
-  <si>
-    <t>Thread-509</t>
-  </si>
-  <si>
-    <t>Thread-528</t>
-  </si>
-  <si>
-    <t>Thread-526</t>
-  </si>
-  <si>
-    <t>Thread-535</t>
-  </si>
-  <si>
-    <t>Thread-536</t>
-  </si>
-  <si>
-    <t>Thread-530</t>
-  </si>
-  <si>
-    <t>Thread-537</t>
-  </si>
-  <si>
-    <t>Thread-533</t>
-  </si>
-  <si>
-    <t>Thread-538</t>
-  </si>
-  <si>
-    <t>Thread-525</t>
-  </si>
-  <si>
-    <t>Thread-532</t>
-  </si>
-  <si>
-    <t>Thread-534</t>
-  </si>
-  <si>
-    <t>Thread-541</t>
-  </si>
-  <si>
-    <t>Thread-543</t>
-  </si>
-  <si>
-    <t>Thread-539</t>
-  </si>
-  <si>
-    <t>Thread-540</t>
-  </si>
-  <si>
-    <t>Thread-542</t>
-  </si>
-  <si>
-    <t>Thread-544</t>
+    <t>496</t>
+  </si>
+  <si>
+    <t>488</t>
+  </si>
+  <si>
+    <t>487</t>
+  </si>
+  <si>
+    <t>498</t>
+  </si>
+  <si>
+    <t>474</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>495</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>494</t>
+  </si>
+  <si>
+    <t>497</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>493</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>515</t>
+  </si>
+  <si>
+    <t>516</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>517</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>518</t>
+  </si>
+  <si>
+    <t>522</t>
+  </si>
+  <si>
+    <t>524</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>519</t>
+  </si>
+  <si>
+    <t>527</t>
+  </si>
+  <si>
+    <t>529</t>
+  </si>
+  <si>
+    <t>531</t>
+  </si>
+  <si>
+    <t>523</t>
+  </si>
+  <si>
+    <t>509</t>
+  </si>
+  <si>
+    <t>528</t>
+  </si>
+  <si>
+    <t>526</t>
+  </si>
+  <si>
+    <t>535</t>
+  </si>
+  <si>
+    <t>536</t>
+  </si>
+  <si>
+    <t>530</t>
+  </si>
+  <si>
+    <t>537</t>
+  </si>
+  <si>
+    <t>533</t>
+  </si>
+  <si>
+    <t>538</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>532</t>
+  </si>
+  <si>
+    <t>534</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
+    <t>543</t>
+  </si>
+  <si>
+    <t>539</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>542</t>
+  </si>
+  <si>
+    <t>544</t>
   </si>
 </sst>
 </file>
